--- a/experiment result/128_0.7_40_zs30_kappa_lp.xlsx
+++ b/experiment result/128_0.7_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003326700896027643</v>
+        <v>0.0008140802037689916</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00827746543924265</v>
+        <v>0.007326522751802175</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01607698703876152</v>
+        <v>0.008231278854406417</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01704528894704851</v>
+        <v>0.008932537865143475</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01983312902013623</v>
+        <v>0.003433928420124818</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00951710870101061</v>
+        <v>0.00647667679563705</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01055354157319489</v>
+        <v>0.002179503870219603</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01175493738002878</v>
+        <v>0.006556551724227583</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02261007709759898</v>
+        <v>0.01336430945589355</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01583289715245347</v>
+        <v>0.05018338958762374</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01296978733131054</v>
+        <v>0.01164647841205155</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02028282114614089</v>
+        <v>0.04005375092049349</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01439251000239669</v>
+        <v>0.01114874898017919</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01763902241616904</v>
+        <v>0.006632350652035747</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01578404744542371</v>
+        <v>0.01927162193185404</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01178808777870883</v>
+        <v>0.007666528468704623</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01289218045482974</v>
+        <v>0.0008928296162489666</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.006436202220887735</v>
+        <v>0.0002830428713485969</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.016230900324294</v>
+        <v>0.02156595805373085</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01757856827745486</v>
+        <v>0.001341622985812603</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.005698872715654996</v>
+        <v>0.00999099678775014</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.008793971107207409</v>
+        <v>0.0005431463303763596</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01183484082787475</v>
+        <v>0.003141477252083023</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.008151813185429702</v>
+        <v>0.0005604212217148285</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.004031022217978172</v>
+        <v>0.0003486301141156173</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01405787198657679</v>
+        <v>0.03466931435278566</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.007234906492304041</v>
+        <v>0.001718978600713182</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01895211319752967</v>
+        <v>0.005162411423650378</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.007899844326333805</v>
+        <v>0.01387223229583857</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01246350594267268</v>
+        <v>0.01328976474652752</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.006016007079608349</v>
+        <v>0.0003962559449469138</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01013131869145441</v>
+        <v>0.001095879446742337</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01793358977114979</v>
+        <v>0.0100057134731397</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01252593247539564</v>
+        <v>0.002838766823084169</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01299507016484401</v>
+        <v>0.002410180457749996</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01185357523940575</v>
+        <v>0.003361623184224479</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.009228396585525659</v>
+        <v>0.002052951191406988</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0131156659098025</v>
+        <v>0.002504471663291371</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01842955170345701</v>
+        <v>0.001024899828130688</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01634533353550707</v>
+        <v>0.03077144150931426</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01224052514762223</v>
+        <v>0.007164341366803194</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01381776723969235</v>
+        <v>0.002519587381076039</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00895518370243864</v>
+        <v>0.001127851741884805</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01182469773432252</v>
+        <v>0.002520255460766973</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01125565311815285</v>
+        <v>0.01845840575934019</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01447455637701739</v>
+        <v>0.005201627589531417</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01396878460091668</v>
+        <v>0.08369360249183477</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.005457784304710151</v>
+        <v>0.004961712706168091</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01857714119747167</v>
+        <v>0.001880664011705466</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.004527392538806773</v>
+        <v>0.0002679754881423567</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01978037849596056</v>
+        <v>0.03229024989026598</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01130184072839389</v>
+        <v>0.008127499700270466</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.002106000848486363</v>
+        <v>0.0005159378706004307</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.002594803862349746</v>
+        <v>0.0003879079117479121</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01335097098121568</v>
+        <v>0.00435363500571882</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02168243899618812</v>
+        <v>0.004970123087765007</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.007105871691315165</v>
+        <v>0.004812513128257245</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01131354078038324</v>
+        <v>0.021441478399497</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.005818961208858623</v>
+        <v>0.002261451321496877</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01604575329848154</v>
+        <v>0.006442923947878624</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.005774885388976184</v>
+        <v>0.0001226159742179904</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.009551122884749921</v>
+        <v>0.007722865260979953</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.006603330459790807</v>
+        <v>0.001121329275385949</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0102594587034827</v>
+        <v>0.001164072444880454</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01577489665563643</v>
+        <v>0.0007623305039769967</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01801772393254025</v>
+        <v>0.01366211337164843</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01273542951033915</v>
+        <v>0.001964956629333249</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.007900456654930737</v>
+        <v>0.001164806131414552</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008041946292605283</v>
+        <v>0.003339676891939951</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.007045900048291536</v>
+        <v>0.0008897838542382353</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.007886356842607132</v>
+        <v>0.006865576329867196</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.005423946505291181</v>
+        <v>0.0009177002842087363</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01976104426209775</v>
+        <v>0.005116667944062094</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.009001360698915968</v>
+        <v>0.0008680572654519778</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01284938569110193</v>
+        <v>0.001870755147091181</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01115200421438334</v>
+        <v>0.001467123339981005</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.005973056136318223</v>
+        <v>0.0004699806248990439</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01589959795922708</v>
+        <v>0.0005172992021865242</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01322702951028506</v>
+        <v>0.002710379561183807</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01268050802462785</v>
+        <v>0.003607929583579246</v>
       </c>
     </row>
   </sheetData>
